--- a/output/VISTA_21646715000196.xlsx
+++ b/output/VISTA_21646715000196.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VISTA MULTIESTRATÉGIA FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,24 +383,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42035</v>
       </c>
@@ -411,774 +405,564 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42063</v>
       </c>
       <c r="B3">
         <v>0.00866380000000011</v>
       </c>
-      <c r="C3">
-        <v>0.00866380000000011</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42094</v>
       </c>
       <c r="B4">
-        <v>0.01659659999999996</v>
-      </c>
-      <c r="C4">
         <v>0.007864662140149914</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42124</v>
       </c>
       <c r="B5">
-        <v>-0.01640589999999997</v>
-      </c>
-      <c r="C5">
         <v>-0.03246371274505533</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42155</v>
       </c>
       <c r="B6">
-        <v>0.01546690000000006</v>
-      </c>
-      <c r="C6">
         <v>0.03240442373536001</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42185</v>
       </c>
       <c r="B7">
-        <v>-0.01349869999999997</v>
-      </c>
-      <c r="C7">
         <v>-0.02852441571458408</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42216</v>
       </c>
       <c r="B8">
-        <v>0.09302539999999992</v>
-      </c>
-      <c r="C8">
         <v>0.1079817127458422</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42247</v>
       </c>
       <c r="B9">
-        <v>0.1587932999999999</v>
-      </c>
-      <c r="C9">
         <v>0.06017051387826844</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42277</v>
       </c>
       <c r="B10">
-        <v>0.337127</v>
-      </c>
-      <c r="C10">
         <v>0.1538960399581186</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>42308</v>
       </c>
       <c r="B11">
-        <v>0.3479179999999999</v>
-      </c>
-      <c r="C11">
         <v>0.008070288013031002</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>42338</v>
       </c>
       <c r="B12">
-        <v>0.3780626</v>
-      </c>
-      <c r="C12">
         <v>0.02236382331862918</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>42369</v>
       </c>
       <c r="B13">
-        <v>0.3567107</v>
-      </c>
-      <c r="C13">
         <v>-0.01549414373483471</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>42400</v>
       </c>
       <c r="B14">
-        <v>0.3167286</v>
-      </c>
-      <c r="C14">
         <v>-0.02946987887690433</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>42429</v>
       </c>
       <c r="B15">
-        <v>0.3287385</v>
-      </c>
-      <c r="C15">
         <v>0.009121014003948824</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42460</v>
       </c>
       <c r="B16">
-        <v>0.4452856999999999</v>
-      </c>
-      <c r="C16">
         <v>0.08771266882084006</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42490</v>
       </c>
       <c r="B17">
-        <v>0.5692459000000001</v>
-      </c>
-      <c r="C17">
         <v>0.0857686476798325</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42521</v>
       </c>
       <c r="B18">
-        <v>0.4812852000000001</v>
-      </c>
-      <c r="C18">
         <v>-0.05605284678456068</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42551</v>
       </c>
       <c r="B19">
-        <v>0.6284708999999999</v>
-      </c>
-      <c r="C19">
         <v>0.09936351217172756</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42582</v>
       </c>
       <c r="B20">
-        <v>0.7054128</v>
-      </c>
-      <c r="C20">
         <v>0.04724794284012068</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42613</v>
       </c>
       <c r="B21">
-        <v>0.7348819</v>
-      </c>
-      <c r="C21">
         <v>0.01727974599463544</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42643</v>
       </c>
       <c r="B22">
-        <v>0.7871942999999999</v>
-      </c>
-      <c r="C22">
         <v>0.03015329170244962</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42674</v>
       </c>
       <c r="B23">
-        <v>0.8714831999999999</v>
-      </c>
-      <c r="C23">
         <v>0.04716269518093252</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42704</v>
       </c>
       <c r="B24">
-        <v>0.8640019999999999</v>
-      </c>
-      <c r="C24">
         <v>-0.00399747109672155</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42735</v>
       </c>
       <c r="B25">
-        <v>0.9163851999999999</v>
-      </c>
-      <c r="C25">
         <v>0.02810254495435083</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42766</v>
       </c>
       <c r="B26">
-        <v>1.0636196</v>
-      </c>
-      <c r="C26">
         <v>0.0768292303655862</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42794</v>
       </c>
       <c r="B27">
-        <v>1.0185282</v>
-      </c>
-      <c r="C27">
         <v>-0.02185063565009748</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42825</v>
       </c>
       <c r="B28">
-        <v>1.015404</v>
-      </c>
-      <c r="C28">
         <v>-0.001547761383764557</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42855</v>
       </c>
       <c r="B29">
-        <v>1.0082624</v>
-      </c>
-      <c r="C29">
         <v>-0.003543507902137866</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42886</v>
       </c>
       <c r="B30">
-        <v>1.0190526</v>
-      </c>
-      <c r="C30">
         <v>0.005372903461221101</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42916</v>
       </c>
       <c r="B31">
-        <v>0.9912084000000001</v>
-      </c>
-      <c r="C31">
         <v>-0.01379072541250292</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42947</v>
       </c>
       <c r="B32">
-        <v>0.96117417</v>
-      </c>
-      <c r="C32">
         <v>-0.01508341869188579</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42978</v>
       </c>
       <c r="B33">
-        <v>1.03365487</v>
-      </c>
-      <c r="C33">
         <v>0.03695780880083688</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43008</v>
       </c>
       <c r="B34">
-        <v>1.18624233</v>
-      </c>
-      <c r="C34">
         <v>0.07503114823018131</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43039</v>
       </c>
       <c r="B35">
-        <v>1.20461693</v>
-      </c>
-      <c r="C35">
         <v>0.008404649268683784</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43069</v>
       </c>
       <c r="B36">
-        <v>1.02365645</v>
-      </c>
-      <c r="C36">
         <v>-0.08208250491843949</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43100</v>
       </c>
       <c r="B37">
-        <v>1.02421349</v>
-      </c>
-      <c r="C37">
         <v>0.0002752641141239298</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43131</v>
       </c>
       <c r="B38">
-        <v>1.2143963</v>
-      </c>
-      <c r="C38">
         <v>0.09395392874296071</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43159</v>
       </c>
       <c r="B39">
-        <v>1.32556797</v>
-      </c>
-      <c r="C39">
         <v>0.05020405335756739</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43190</v>
       </c>
       <c r="B40">
-        <v>1.40363476</v>
-      </c>
-      <c r="C40">
         <v>0.03356891348998081</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43220</v>
       </c>
       <c r="B41">
-        <v>1.29888409</v>
-      </c>
-      <c r="C41">
         <v>-0.04358011114800153</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43251</v>
       </c>
       <c r="B42">
-        <v>1.50830502</v>
-      </c>
-      <c r="C42">
         <v>0.09109677643643166</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43281</v>
       </c>
       <c r="B43">
-        <v>1.59513723</v>
-      </c>
-      <c r="C43">
         <v>0.03461788311534786</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>43312</v>
       </c>
       <c r="B44">
-        <v>1.62424319</v>
-      </c>
-      <c r="C44">
         <v>0.01121557644949656</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>43343</v>
       </c>
       <c r="B45">
-        <v>1.4624906</v>
-      </c>
-      <c r="C45">
         <v>-0.0616378049932178</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>43373</v>
       </c>
       <c r="B46">
-        <v>1.50330418</v>
-      </c>
-      <c r="C46">
         <v>0.01657410590724684</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>43404</v>
       </c>
       <c r="B47">
-        <v>1.87268911</v>
-      </c>
-      <c r="C47">
         <v>0.1475589474707784</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>43434</v>
       </c>
       <c r="B48">
-        <v>1.79724681</v>
-      </c>
-      <c r="C48">
         <v>-0.02626190900274628</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43465</v>
       </c>
       <c r="B49">
-        <v>1.80171446</v>
-      </c>
-      <c r="C49">
         <v>0.001597159744370247</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43496</v>
       </c>
       <c r="B50">
-        <v>2.08523025</v>
-      </c>
-      <c r="C50">
         <v>0.1011936776740625</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43524</v>
       </c>
       <c r="B51">
-        <v>1.72612208</v>
-      </c>
-      <c r="C51">
         <v>-0.1163959059457556</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43555</v>
       </c>
       <c r="B52">
-        <v>1.60140034</v>
-      </c>
-      <c r="C52">
         <v>-0.04575060703077538</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43585</v>
       </c>
       <c r="B53">
-        <v>1.55431341</v>
-      </c>
-      <c r="C53">
         <v>-0.01810060884362008</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43616</v>
       </c>
       <c r="B54">
-        <v>1.5592387</v>
-      </c>
-      <c r="C54">
         <v>0.001928224618293894</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43646</v>
       </c>
       <c r="B55">
-        <v>1.67449991</v>
-      </c>
-      <c r="C55">
         <v>0.04503730347622525</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43677</v>
       </c>
       <c r="B56">
-        <v>1.78592704</v>
-      </c>
-      <c r="C56">
         <v>0.04166279070841306</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43708</v>
       </c>
       <c r="B57">
-        <v>1.70031599</v>
-      </c>
-      <c r="C57">
         <v>-0.03072982485571474</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43738</v>
       </c>
       <c r="B58">
-        <v>1.72860736</v>
-      </c>
-      <c r="C58">
         <v>0.01047705902004448</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43769</v>
       </c>
       <c r="B59">
-        <v>1.81717285</v>
-      </c>
-      <c r="C59">
         <v>0.03245812911682533</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43799</v>
       </c>
       <c r="B60">
-        <v>1.85543642</v>
-      </c>
-      <c r="C60">
         <v>0.01358225853979822</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43830</v>
       </c>
       <c r="B61">
-        <v>2.15992927</v>
-      </c>
-      <c r="C61">
         <v>0.1066361862821656</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43861</v>
       </c>
       <c r="B62">
-        <v>1.98853858</v>
-      </c>
-      <c r="C62">
         <v>-0.05423877414825806</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43890</v>
       </c>
       <c r="B63">
-        <v>2.0082025</v>
-      </c>
-      <c r="C63">
         <v>0.006579777865875824</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43921</v>
       </c>
       <c r="B64">
-        <v>2.10347777</v>
-      </c>
-      <c r="C64">
         <v>0.03167182727891493</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43951</v>
       </c>
       <c r="B65">
-        <v>2.55920747</v>
-      </c>
-      <c r="C65">
         <v>0.1468448411022452</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43982</v>
       </c>
       <c r="B66">
-        <v>2.91725333</v>
-      </c>
-      <c r="C66">
         <v>0.1005970747751885</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>44012</v>
       </c>
       <c r="B67">
-        <v>2.53772281</v>
-      </c>
-      <c r="C67">
         <v>-0.0968868970238389</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>44043</v>
       </c>
       <c r="B68">
-        <v>2.65136619</v>
-      </c>
-      <c r="C68">
         <v>0.03212331381044531</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>44074</v>
       </c>
       <c r="B69">
-        <v>2.9082834</v>
-      </c>
-      <c r="C69">
         <v>0.07036194033444776</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>44104</v>
       </c>
       <c r="B70">
-        <v>2.62823433</v>
-      </c>
-      <c r="C70">
         <v>-0.07165526174483661</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>44135</v>
       </c>
       <c r="B71">
-        <v>2.46183968</v>
-      </c>
-      <c r="C71">
         <v>-0.0458610538531562</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>44165</v>
       </c>
       <c r="B72">
-        <v>2.74541898</v>
-      </c>
-      <c r="C72">
-        <v>0.08191578068687444</v>
+        <v>0.06835493606682541</v>
       </c>
     </row>
   </sheetData>
